--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lipc-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5957213333333333</v>
+        <v>0.4596806666666667</v>
       </c>
       <c r="H2">
-        <v>1.787164</v>
+        <v>1.379042</v>
       </c>
       <c r="I2">
-        <v>0.3868649014012554</v>
+        <v>0.2921903747709453</v>
       </c>
       <c r="J2">
-        <v>0.3983065390716899</v>
+        <v>0.3124150031659657</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>2.351118294659555</v>
+        <v>1.336221060404222</v>
       </c>
       <c r="R2">
-        <v>21.160064651936</v>
+        <v>12.025989543638</v>
       </c>
       <c r="S2">
-        <v>0.003126753492294037</v>
+        <v>0.001613044484331751</v>
       </c>
       <c r="T2">
-        <v>0.003312987738966025</v>
+        <v>0.001757190946404892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5957213333333333</v>
+        <v>0.4596806666666667</v>
       </c>
       <c r="H3">
-        <v>1.787164</v>
+        <v>1.379042</v>
       </c>
       <c r="I3">
-        <v>0.3868649014012554</v>
+        <v>0.2921903747709453</v>
       </c>
       <c r="J3">
-        <v>0.3983065390716899</v>
+        <v>0.3124150031659657</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>110.6866585912458</v>
+        <v>85.40992938364289</v>
       </c>
       <c r="R3">
-        <v>996.1799273212119</v>
+        <v>768.6893644527861</v>
       </c>
       <c r="S3">
-        <v>0.1472022471547522</v>
+        <v>0.1031042090129702</v>
       </c>
       <c r="T3">
-        <v>0.1559698393793558</v>
+        <v>0.1123179083860698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5957213333333333</v>
+        <v>0.4596806666666667</v>
       </c>
       <c r="H4">
-        <v>1.787164</v>
+        <v>1.379042</v>
       </c>
       <c r="I4">
-        <v>0.3868649014012554</v>
+        <v>0.2921903747709453</v>
       </c>
       <c r="J4">
-        <v>0.3983065390716899</v>
+        <v>0.3124150031659657</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>69.90159831641911</v>
+        <v>63.00921442103243</v>
       </c>
       <c r="R4">
-        <v>629.114384847772</v>
+        <v>567.0829297892919</v>
       </c>
       <c r="S4">
-        <v>0.09296217342583643</v>
+        <v>0.07606276296317077</v>
       </c>
       <c r="T4">
-        <v>0.09849914344269868</v>
+        <v>0.08285995813239835</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5957213333333333</v>
+        <v>0.4596806666666667</v>
       </c>
       <c r="H5">
-        <v>1.787164</v>
+        <v>1.379042</v>
       </c>
       <c r="I5">
-        <v>0.3868649014012554</v>
+        <v>0.2921903747709453</v>
       </c>
       <c r="J5">
-        <v>0.3983065390716899</v>
+        <v>0.3124150031659657</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>24.69775698137867</v>
+        <v>13.42853018947767</v>
       </c>
       <c r="R5">
-        <v>148.186541888272</v>
+        <v>80.571181136866</v>
       </c>
       <c r="S5">
-        <v>0.03284556037387189</v>
+        <v>0.01621050378315899</v>
       </c>
       <c r="T5">
-        <v>0.02320126164220877</v>
+        <v>0.01177274847288952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5957213333333333</v>
+        <v>0.4596806666666667</v>
       </c>
       <c r="H6">
-        <v>1.787164</v>
+        <v>1.379042</v>
       </c>
       <c r="I6">
-        <v>0.3868649014012554</v>
+        <v>0.2921903747709453</v>
       </c>
       <c r="J6">
-        <v>0.3983065390716899</v>
+        <v>0.3124150031659657</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>83.26048718021644</v>
+        <v>78.86208458752711</v>
       </c>
       <c r="R6">
-        <v>749.3443846219481</v>
+        <v>709.7587612877439</v>
       </c>
       <c r="S6">
-        <v>0.1107281669545008</v>
+        <v>0.09519985452731358</v>
       </c>
       <c r="T6">
-        <v>0.1173233068684607</v>
+        <v>0.1037071972282031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7948419999999999</v>
       </c>
       <c r="I7">
-        <v>0.1720583404542485</v>
+        <v>0.1684105211180571</v>
       </c>
       <c r="J7">
-        <v>0.1771470140002933</v>
+        <v>0.180067442432096</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>1.045660928467556</v>
+        <v>0.7701611844264442</v>
       </c>
       <c r="R7">
-        <v>9.410948356207999</v>
+        <v>6.931450659837998</v>
       </c>
       <c r="S7">
-        <v>0.001390625034592224</v>
+        <v>0.0009297146163896516</v>
       </c>
       <c r="T7">
-        <v>0.001473452800311126</v>
+        <v>0.001012796685106296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7948419999999999</v>
       </c>
       <c r="I8">
-        <v>0.1720583404542485</v>
+        <v>0.1684105211180571</v>
       </c>
       <c r="J8">
-        <v>0.1771470140002933</v>
+        <v>0.180067442432096</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>49.22794163713177</v>
@@ -948,10 +948,10 @@
         <v>443.0514747341859</v>
       </c>
       <c r="S8">
-        <v>0.06546826622121839</v>
+        <v>0.05942643929647337</v>
       </c>
       <c r="T8">
-        <v>0.06936765684177047</v>
+        <v>0.06473696300576812</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7948419999999999</v>
       </c>
       <c r="I9">
-        <v>0.1720583404542485</v>
+        <v>0.1684105211180571</v>
       </c>
       <c r="J9">
-        <v>0.1771470140002933</v>
+        <v>0.180067442432096</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>31.08876757198511</v>
+        <v>36.31678368667688</v>
       </c>
       <c r="R9">
-        <v>279.798908147866</v>
+        <v>326.8510531800919</v>
       </c>
       <c r="S9">
-        <v>0.04134496881659359</v>
+        <v>0.04384049118095937</v>
       </c>
       <c r="T9">
-        <v>0.04380753874422354</v>
+        <v>0.04775820811974672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7948419999999999</v>
       </c>
       <c r="I10">
-        <v>0.1720583404542485</v>
+        <v>0.1684105211180571</v>
       </c>
       <c r="J10">
-        <v>0.1771470140002933</v>
+        <v>0.180067442432096</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>10.98433862510267</v>
+        <v>7.739836635044332</v>
       </c>
       <c r="R10">
-        <v>65.90603175061599</v>
+        <v>46.439019810266</v>
       </c>
       <c r="S10">
-        <v>0.01460807788131872</v>
+        <v>0.009343289941868092</v>
       </c>
       <c r="T10">
-        <v>0.01031877164390985</v>
+        <v>0.006785489449696563</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.7948419999999999</v>
       </c>
       <c r="I11">
-        <v>0.1720583404542485</v>
+        <v>0.1684105211180571</v>
       </c>
       <c r="J11">
-        <v>0.1771470140002933</v>
+        <v>0.180067442432096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>37.03013945631044</v>
+        <v>45.45394341703821</v>
       </c>
       <c r="R11">
-        <v>333.271255106794</v>
+        <v>409.0854907533439</v>
       </c>
       <c r="S11">
-        <v>0.04924640250052561</v>
+        <v>0.05487058608236658</v>
       </c>
       <c r="T11">
-        <v>0.05217959397007831</v>
+        <v>0.05977398517177825</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.218721</v>
+        <v>0.324703</v>
       </c>
       <c r="H12">
-        <v>0.6561630000000001</v>
+        <v>0.974109</v>
       </c>
       <c r="I12">
-        <v>0.1420386905164562</v>
+        <v>0.2063934773398858</v>
       </c>
       <c r="J12">
-        <v>0.1462395245186772</v>
+        <v>0.2206794762733809</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>0.8632206297680001</v>
+        <v>0.9438617249723332</v>
       </c>
       <c r="R12">
-        <v>7.768985667912</v>
+        <v>8.494755524751</v>
       </c>
       <c r="S12">
-        <v>0.001147997582630431</v>
+        <v>0.001139400503819259</v>
       </c>
       <c r="T12">
-        <v>0.001216374084170879</v>
+        <v>0.001241220728311047</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.218721</v>
+        <v>0.324703</v>
       </c>
       <c r="H13">
-        <v>0.6561630000000001</v>
+        <v>0.974109</v>
       </c>
       <c r="I13">
-        <v>0.1420386905164562</v>
+        <v>0.2063934773398858</v>
       </c>
       <c r="J13">
-        <v>0.1462395245186772</v>
+        <v>0.2206794762733809</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>40.63896204333101</v>
+        <v>60.33070849326634</v>
       </c>
       <c r="R13">
-        <v>365.750658389979</v>
+        <v>542.976376439397</v>
       </c>
       <c r="S13">
-        <v>0.0540457776117937</v>
+        <v>0.07282935395543817</v>
       </c>
       <c r="T13">
-        <v>0.05726482724398893</v>
+        <v>0.07933760206001417</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.218721</v>
+        <v>0.324703</v>
       </c>
       <c r="H14">
-        <v>0.6561630000000001</v>
+        <v>0.974109</v>
       </c>
       <c r="I14">
-        <v>0.1420386905164562</v>
+        <v>0.2063934773398858</v>
       </c>
       <c r="J14">
-        <v>0.1462395245186772</v>
+        <v>0.2206794762733809</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>25.664596229611</v>
+        <v>44.50759501919266</v>
       </c>
       <c r="R14">
-        <v>230.981366066499</v>
+        <v>400.568355172734</v>
       </c>
       <c r="S14">
-        <v>0.03413136041326768</v>
+        <v>0.05372818374443369</v>
       </c>
       <c r="T14">
-        <v>0.03616427673050236</v>
+        <v>0.05852949435651157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.218721</v>
+        <v>0.324703</v>
       </c>
       <c r="H15">
-        <v>0.6561630000000001</v>
+        <v>0.974109</v>
       </c>
       <c r="I15">
-        <v>0.1420386905164562</v>
+        <v>0.2063934773398858</v>
       </c>
       <c r="J15">
-        <v>0.1462395245186772</v>
+        <v>0.2206794762733809</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>9.067860763854</v>
+        <v>9.485463179759501</v>
       </c>
       <c r="R15">
-        <v>54.407164583124</v>
+        <v>56.91277907855699</v>
       </c>
       <c r="S15">
-        <v>0.01205935293660845</v>
+        <v>0.0114505559872065</v>
       </c>
       <c r="T15">
-        <v>0.008518417695822341</v>
+        <v>0.008315874528968613</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.218721</v>
+        <v>0.324703</v>
       </c>
       <c r="H16">
-        <v>0.6561630000000001</v>
+        <v>0.974109</v>
       </c>
       <c r="I16">
-        <v>0.1420386905164562</v>
+        <v>0.2063934773398858</v>
       </c>
       <c r="J16">
-        <v>0.1462395245186772</v>
+        <v>0.2206794762733809</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>30.569355162499</v>
+        <v>55.70553061869866</v>
       </c>
       <c r="R16">
-        <v>275.1241964624911</v>
+        <v>501.349775568288</v>
       </c>
       <c r="S16">
-        <v>0.04065420197215597</v>
+        <v>0.06724598314898815</v>
       </c>
       <c r="T16">
-        <v>0.04307562876419276</v>
+        <v>0.07325528459957545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1327015</v>
+        <v>0.3055345</v>
       </c>
       <c r="H17">
-        <v>0.2654030000000001</v>
+        <v>0.611069</v>
       </c>
       <c r="I17">
-        <v>0.08617712651994787</v>
+        <v>0.1942092555421518</v>
       </c>
       <c r="J17">
-        <v>0.05915055942781062</v>
+        <v>0.1384345970388309</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>0.5237296482786667</v>
+        <v>0.8881418410318331</v>
       </c>
       <c r="R17">
-        <v>3.142377889672001</v>
+        <v>5.328851046190999</v>
       </c>
       <c r="S17">
-        <v>0.000696508342643972</v>
+        <v>0.001072137193786831</v>
       </c>
       <c r="T17">
-        <v>0.0004919956338001438</v>
+        <v>0.0007786310456307284</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1327015</v>
+        <v>0.3055345</v>
       </c>
       <c r="H18">
-        <v>0.2654030000000001</v>
+        <v>0.611069</v>
       </c>
       <c r="I18">
-        <v>0.08617712651994787</v>
+        <v>0.1942092555421518</v>
       </c>
       <c r="J18">
-        <v>0.05915055942781062</v>
+        <v>0.1384345970388309</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>24.65630287714984</v>
+        <v>56.76914858851283</v>
       </c>
       <c r="R18">
-        <v>147.937817262899</v>
+        <v>340.614891531077</v>
       </c>
       <c r="S18">
-        <v>0.03279043053822652</v>
+        <v>0.06852994966507185</v>
       </c>
       <c r="T18">
-        <v>0.02316231933991461</v>
+        <v>0.04976932679321389</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1327015</v>
+        <v>0.3055345</v>
       </c>
       <c r="H19">
-        <v>0.2654030000000001</v>
+        <v>0.611069</v>
       </c>
       <c r="I19">
-        <v>0.08617712651994787</v>
+        <v>0.1942092555421518</v>
       </c>
       <c r="J19">
-        <v>0.05915055942781062</v>
+        <v>0.1384345970388309</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>15.57111761816984</v>
+        <v>41.88013597161566</v>
       </c>
       <c r="R19">
-        <v>93.42670570901903</v>
+        <v>251.2808158296939</v>
       </c>
       <c r="S19">
-        <v>0.02070803774617545</v>
+        <v>0.05055639694201677</v>
       </c>
       <c r="T19">
-        <v>0.01462762688098158</v>
+        <v>0.0367161781555649</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1327015</v>
+        <v>0.3055345</v>
       </c>
       <c r="H20">
-        <v>0.2654030000000001</v>
+        <v>0.611069</v>
       </c>
       <c r="I20">
-        <v>0.08617712651994787</v>
+        <v>0.1942092555421518</v>
       </c>
       <c r="J20">
-        <v>0.05915055942781062</v>
+        <v>0.1384345970388309</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>5.501614957661001</v>
+        <v>8.92549884015925</v>
       </c>
       <c r="R20">
-        <v>22.006459830644</v>
+        <v>35.701995360637</v>
       </c>
       <c r="S20">
-        <v>0.00731660070920189</v>
+        <v>0.01077458446110182</v>
       </c>
       <c r="T20">
-        <v>0.003445506088768091</v>
+        <v>0.005216637083265139</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1327015</v>
+        <v>0.3055345</v>
       </c>
       <c r="H21">
-        <v>0.2654030000000001</v>
+        <v>0.611069</v>
       </c>
       <c r="I21">
-        <v>0.08617712651994787</v>
+        <v>0.1942092555421518</v>
       </c>
       <c r="J21">
-        <v>0.05915055942781062</v>
+        <v>0.1384345970388309</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>18.54691266086184</v>
+        <v>52.41701322383466</v>
       </c>
       <c r="R21">
-        <v>111.281475965171</v>
+        <v>314.5020793430079</v>
       </c>
       <c r="S21">
-        <v>0.02466554918370004</v>
+        <v>0.06327618728017455</v>
       </c>
       <c r="T21">
-        <v>0.01742311148434619</v>
+        <v>0.04595382396115626</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.327778</v>
+        <v>0.2183576666666667</v>
       </c>
       <c r="H22">
-        <v>0.983334</v>
+        <v>0.655073</v>
       </c>
       <c r="I22">
-        <v>0.212860941108092</v>
+        <v>0.13879637122896</v>
       </c>
       <c r="J22">
-        <v>0.2191563629815289</v>
+        <v>0.1484034810897265</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>1.293633128890667</v>
+        <v>0.6347321827052221</v>
       </c>
       <c r="R22">
-        <v>11.642698160016</v>
+        <v>5.712589644346999</v>
       </c>
       <c r="S22">
-        <v>0.001720403398116493</v>
+        <v>0.0007662289397165956</v>
       </c>
       <c r="T22">
-        <v>0.001822873270336924</v>
+        <v>0.0008347014411702414</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.327778</v>
+        <v>0.2183576666666667</v>
       </c>
       <c r="H23">
-        <v>0.983334</v>
+        <v>0.655073</v>
       </c>
       <c r="I23">
-        <v>0.212860941108092</v>
+        <v>0.13879637122896</v>
       </c>
       <c r="J23">
-        <v>0.2191563629815289</v>
+        <v>0.1484034810897265</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>60.90205193209133</v>
+        <v>40.57145371288988</v>
       </c>
       <c r="R23">
-        <v>548.1184673888221</v>
+        <v>365.143083416009</v>
       </c>
       <c r="S23">
-        <v>0.08099367181952585</v>
+        <v>0.04897659644213404</v>
       </c>
       <c r="T23">
-        <v>0.08581777947421693</v>
+        <v>0.05335329105291057</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.327778</v>
+        <v>0.2183576666666667</v>
       </c>
       <c r="H24">
-        <v>0.983334</v>
+        <v>0.655073</v>
       </c>
       <c r="I24">
-        <v>0.212860941108092</v>
+        <v>0.13879637122896</v>
       </c>
       <c r="J24">
-        <v>0.2191563629815289</v>
+        <v>0.1484034810897265</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>38.46128182913134</v>
+        <v>29.93065847046644</v>
       </c>
       <c r="R24">
-        <v>346.151536462182</v>
+        <v>269.3759262341979</v>
       </c>
       <c r="S24">
-        <v>0.05114967951655329</v>
+        <v>0.03613135953986403</v>
       </c>
       <c r="T24">
-        <v>0.05419623309225268</v>
+        <v>0.03936016550160516</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.327778</v>
+        <v>0.2183576666666667</v>
       </c>
       <c r="H25">
-        <v>0.983334</v>
+        <v>0.655073</v>
       </c>
       <c r="I25">
-        <v>0.212860941108092</v>
+        <v>0.13879637122896</v>
       </c>
       <c r="J25">
-        <v>0.2191563629815289</v>
+        <v>0.1484034810897265</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>13.589208468572</v>
+        <v>6.378824979088167</v>
       </c>
       <c r="R25">
-        <v>81.53525081143201</v>
+        <v>38.272949874529</v>
       </c>
       <c r="S25">
-        <v>0.01807229569568375</v>
+        <v>0.007700319022006082</v>
       </c>
       <c r="T25">
-        <v>0.01276580628060979</v>
+        <v>0.005592294984765623</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.327778</v>
+        <v>0.2183576666666667</v>
       </c>
       <c r="H26">
-        <v>0.983334</v>
+        <v>0.655073</v>
       </c>
       <c r="I26">
-        <v>0.212860941108092</v>
+        <v>0.13879637122896</v>
       </c>
       <c r="J26">
-        <v>0.2191563629815289</v>
+        <v>0.1484034810897265</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>45.81161432351534</v>
+        <v>37.4610942502151</v>
       </c>
       <c r="R26">
-        <v>412.304528911638</v>
+        <v>337.149848251936</v>
       </c>
       <c r="S26">
-        <v>0.0609248906782126</v>
+        <v>0.04522186728523924</v>
       </c>
       <c r="T26">
-        <v>0.06455367086411259</v>
+        <v>0.04926302810927493</v>
       </c>
     </row>
   </sheetData>
